--- a/LCA_Impact_Values.xlsx
+++ b/LCA_Impact_Values.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SATNOORK\Desktop\CLT Literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF19D8-85CA-4454-B485-5C9BB874C5EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F564A575-702F-4F3D-8AD5-2C5BC531FCEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{683E30CA-0619-4713-BF15-ACD20B9BC5B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{683E30CA-0619-4713-BF15-ACD20B9BC5B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lumber Production" sheetId="1" r:id="rId1"/>
-    <sheet name="CLT Manufacturing" sheetId="2" r:id="rId2"/>
-    <sheet name="Electricity by state" sheetId="6" r:id="rId3"/>
-    <sheet name="Construction Impact" sheetId="4" r:id="rId4"/>
-    <sheet name="Carbon Sequestration" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId6"/>
-    <sheet name="Transportation" sheetId="5" r:id="rId7"/>
+    <sheet name="Transportation- Energy" sheetId="9" r:id="rId1"/>
+    <sheet name="Lumber Production- CO2" sheetId="8" r:id="rId2"/>
+    <sheet name="Transportation- CO2" sheetId="5" r:id="rId3"/>
+    <sheet name="CLT Manufacturing- CO2" sheetId="11" r:id="rId4"/>
+    <sheet name="CLT Manufacturing- Energy" sheetId="10" r:id="rId5"/>
+    <sheet name="CLT Manufacturing Inventory" sheetId="2" r:id="rId6"/>
+    <sheet name="Lumber Production- Energy" sheetId="1" r:id="rId7"/>
+    <sheet name="Electricity by state- CO2" sheetId="12" r:id="rId8"/>
+    <sheet name="Electricity by state- Energy" sheetId="6" r:id="rId9"/>
+    <sheet name="Construction Impact" sheetId="4" r:id="rId10"/>
+    <sheet name="Carbon Sequestration" sheetId="7" r:id="rId11"/>
+    <sheet name="State_Region_Map" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,10 +46,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={282A89A6-3356-4E32-B138-E62577BA8D86}</author>
+    <author>tc={281ABA52-B376-4ACD-80E7-8603607BB18E}</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{282A89A6-3356-4E32-B138-E62577BA8D86}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{281ABA52-B376-4ACD-80E7-8603607BB18E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,11 +82,29 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D537D9C4-8334-47E1-AEC1-15EC4CCF0F1E}</author>
-    <author>tc={6396234F-2670-41BC-BF4D-EF25227122D2}</author>
+    <author>tc={282A89A6-3356-4E32-B138-E62577BA8D86}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D537D9C4-8334-47E1-AEC1-15EC4CCF0F1E}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{282A89A6-3356-4E32-B138-E62577BA8D86}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fill in later by using LCA process</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3DD2687F-6EA1-4C56-85E4-E4202713463A}</author>
+    <author>tc={CE83C21B-1C25-4F6A-8D5C-F726A831D246}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3DD2687F-6EA1-4C56-85E4-E4202713463A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +112,25 @@
     Placeholders</t>
       </text>
     </comment>
-    <comment ref="B56" authorId="1" shapeId="0" xr:uid="{6396234F-2670-41BC-BF4D-EF25227122D2}">
+    <comment ref="B56" authorId="1" shapeId="0" xr:uid="{CE83C21B-1C25-4F6A-8D5C-F726A831D246}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Placeholders</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6396234F-2670-41BC-BF4D-EF25227122D2}</author>
+  </authors>
+  <commentList>
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{6396234F-2670-41BC-BF4D-EF25227122D2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="188">
   <si>
     <t>Process</t>
   </si>
@@ -137,9 +178,6 @@
     <t>Packing</t>
   </si>
   <si>
-    <t>Impact (kg CO2 eq/m3)</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -624,13 +662,58 @@
   </si>
   <si>
     <t>Source: 1.0 t*km Transport, combination truck, short-haul, diesel powered (USLCI)</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CO2 (kg CO2 eq/kWh)</t>
+  </si>
+  <si>
+    <t>Energy 1</t>
+  </si>
+  <si>
+    <t>Energy 2</t>
+  </si>
+  <si>
+    <t>Energy 3</t>
+  </si>
+  <si>
+    <t>Renewable, wind, solar, geothe - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Renewable, biomass - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Non renewable, fossil - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Non-renewable, nuclear - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Renewable, water - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Non-renewable, biomass - Cumulative Energy Demand</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Combination Truck (Long-haul)_TJ</t>
+  </si>
+  <si>
+    <t>Combination Truck (Short-haul)_TJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +728,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1035,7 +1124,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F2" dT="2020-06-11T19:09:12.00" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{282A89A6-3356-4E32-B138-E62577BA8D86}">
+  <threadedComment ref="F2" dT="2020-06-11T19:09:12.00" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{281ABA52-B376-4ACD-80E7-8603607BB18E}">
     <text>Fill in later by using LCA process</text>
   </threadedComment>
 </ThreadedComments>
@@ -1051,69 +1140,1028 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" dT="2020-04-27T19:47:00.83" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{D537D9C4-8334-47E1-AEC1-15EC4CCF0F1E}">
+  <threadedComment ref="D2" dT="2020-06-11T19:09:12.00" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{282A89A6-3356-4E32-B138-E62577BA8D86}">
+    <text>Fill in later by using LCA process</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2020-04-27T19:47:00.83" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{3DD2687F-6EA1-4C56-85E4-E4202713463A}">
     <text>Placeholders</text>
   </threadedComment>
-  <threadedComment ref="B56" dT="2020-04-27T19:47:00.83" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{6396234F-2670-41BC-BF4D-EF25227122D2}">
+  <threadedComment ref="B56" dT="2020-04-27T19:47:00.83" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{CE83C21B-1C25-4F6A-8D5C-F726A831D246}">
+    <text>Placeholders</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C56" dT="2020-04-27T19:47:00.83" personId="{0DDEE6B9-2D96-4F3C-9C6F-58BBEF792279}" id="{6396234F-2670-41BC-BF4D-EF25227122D2}">
     <text>Placeholders</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFEF0D2-42A7-4F01-9B32-CDA270193781}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324AA81B-376E-49FA-936B-3C47DD410868}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>0.56142000000000003</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3">
+        <v>0.64054</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>0.18395</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>0.21138999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DF73D-2245-450A-883D-6F7644A49C1D}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2">
+        <v>2.2437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>280</v>
+      </c>
+      <c r="C3">
+        <f>1350+143+0.00356+7.36+8.97+30</f>
+        <v>1539.33356</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20718251-D8FB-4CBE-A821-22EC91E3BF6B}">
+  <dimension ref="A1:AM28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="4">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="C4" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>71.25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>74.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>24.74</v>
+      </c>
+      <c r="D5">
+        <v>45.38</v>
+      </c>
+      <c r="E5">
+        <v>50.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6">
+        <v>70.59</v>
+      </c>
+      <c r="C6">
+        <v>92.03</v>
+      </c>
+      <c r="D6">
+        <v>116.63</v>
+      </c>
+      <c r="E6">
+        <v>126.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7">
+        <v>70.59</v>
+      </c>
+      <c r="C7">
+        <v>95.56</v>
+      </c>
+      <c r="D7">
+        <v>125.46</v>
+      </c>
+      <c r="E7">
+        <v>142.19999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8">
+        <v>70.59</v>
+      </c>
+      <c r="C8">
+        <v>165.69</v>
+      </c>
+      <c r="D8">
+        <v>266.18</v>
+      </c>
+      <c r="E8">
+        <v>360.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="4">
+        <v>69.47</v>
+      </c>
+      <c r="C10" s="4">
+        <v>68.33</v>
+      </c>
+      <c r="D10" s="4">
+        <v>71.95</v>
+      </c>
+      <c r="E10" s="4">
+        <v>74.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11">
+        <v>5.07</v>
+      </c>
+      <c r="C11">
+        <v>30.36</v>
+      </c>
+      <c r="D11">
+        <v>51.1</v>
+      </c>
+      <c r="E11">
+        <v>56.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12">
+        <v>74.53</v>
+      </c>
+      <c r="C12">
+        <v>98.69</v>
+      </c>
+      <c r="D12">
+        <v>123.6</v>
+      </c>
+      <c r="E12">
+        <v>133.13999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13">
+        <v>74.81</v>
+      </c>
+      <c r="C13">
+        <v>103.24</v>
+      </c>
+      <c r="D13">
+        <v>134.34</v>
+      </c>
+      <c r="E13">
+        <v>151.13999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14">
+        <v>86.93</v>
+      </c>
+      <c r="C14">
+        <v>190.53</v>
+      </c>
+      <c r="D14">
+        <v>300.61</v>
+      </c>
+      <c r="E14">
+        <v>404.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="4">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="C16" s="4">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="D16" s="4">
+        <v>89.77</v>
+      </c>
+      <c r="E16" s="4">
+        <v>96.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17">
+        <v>5.25</v>
+      </c>
+      <c r="C17">
+        <v>29.88</v>
+      </c>
+      <c r="D17">
+        <v>50.09</v>
+      </c>
+      <c r="E17">
+        <v>54.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="C18">
+        <v>107.36</v>
+      </c>
+      <c r="D18">
+        <v>139.86000000000001</v>
+      </c>
+      <c r="E18">
+        <v>152.27000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19">
+        <v>75.16</v>
+      </c>
+      <c r="C19">
+        <v>111</v>
+      </c>
+      <c r="D19">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="E19">
+        <v>169.56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20">
+        <v>87.28</v>
+      </c>
+      <c r="C20">
+        <v>192.57</v>
+      </c>
+      <c r="D20">
+        <v>305.61</v>
+      </c>
+      <c r="E20">
+        <v>411.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28">
+        <v>62.06</v>
+      </c>
+      <c r="F28">
+        <v>125.73</v>
+      </c>
+      <c r="G28">
+        <v>186.9</v>
+      </c>
+      <c r="H28">
+        <v>239.61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" t="s">
+        <v>143</v>
+      </c>
+      <c r="S28">
+        <v>62.06</v>
+      </c>
+      <c r="T28">
+        <v>125.73</v>
+      </c>
+      <c r="U28">
+        <v>186.9</v>
+      </c>
+      <c r="V28">
+        <v>239.61</v>
+      </c>
+      <c r="W28" t="s">
+        <v>141</v>
+      </c>
+      <c r="X28" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA28">
+        <v>62.06</v>
+      </c>
+      <c r="AB28">
+        <v>125.73</v>
+      </c>
+      <c r="AC28">
+        <v>186.9</v>
+      </c>
+      <c r="AD28">
+        <v>239.61</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ28">
+        <v>62.06</v>
+      </c>
+      <c r="AK28">
+        <v>125.73</v>
+      </c>
+      <c r="AL28">
+        <v>186.9</v>
+      </c>
+      <c r="AM28">
+        <v>239.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02338667-7CD3-4C4B-B89F-1C7951C9C08F}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18254B8-C987-4D76-ADBE-961CA10CD423}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1121,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <f>14.52+78.38</f>
@@ -1135,7 +2183,7 @@
         <v>4135.91</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N2">
         <v>2013</v>
@@ -1146,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <f>10.14+113.27</f>
@@ -1160,7 +2208,7 @@
         <v>3303.34</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N3">
         <v>2013</v>
@@ -1168,10 +2216,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>57.8</v>
@@ -1201,7 +2249,7 @@
         <v>535</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4">
         <v>2015</v>
@@ -1212,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>81.5</v>
@@ -1225,7 +2273,7 @@
         <v>5140.45</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5">
         <v>2015</v>
@@ -1233,24 +2281,236 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M4" r:id="rId1" xr:uid="{F61E8732-7A01-42DA-A6F8-B86768A15BF5}"/>
-    <hyperlink ref="M5" r:id="rId2" xr:uid="{DA9D0D9A-6593-4DD3-A94D-1E8ACE884BFD}"/>
-    <hyperlink ref="M2" r:id="rId3" xr:uid="{E173FD67-F9F9-44EE-A6B6-11B1941A330B}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{483E7182-074C-48B6-855F-0009038D0E56}"/>
+    <hyperlink ref="M4" r:id="rId1" xr:uid="{F0B65544-C420-4613-82C0-BFE862BB65D6}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{87747F30-D4A5-48F1-A18A-8BA4FEB32E47}"/>
+    <hyperlink ref="M2" r:id="rId3" xr:uid="{8B7E8A85-B109-4A33-8439-6E9DDCB65570}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{717C415F-EA28-404A-A59B-95B17661CE6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B358049B-63E2-4A39-AB7C-9AB14B655F94}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>0.56142000000000003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3">
+        <v>0.64054</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>0.18395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>0.21138999999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D4E66B-A56D-4797-8856-B5250FFEF96E}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC1DA7B-C8BE-4662-8641-68ADFA6A7CB5}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17136D4E-CF9B-4B88-829E-A8A73350D333}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,12 +2566,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="C1" s="9" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1319,7 +2581,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9">
         <v>30.97</v>
@@ -1328,12 +2590,15 @@
         <v>2.7347700000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="9">
         <v>2.6</v>
@@ -1344,15 +2609,18 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="9">
         <v>17.79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="11">
         <v>0.72</v>
@@ -1361,12 +2629,15 @@
         <v>1.61225</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="11">
         <v>0.24</v>
@@ -1375,7 +2646,7 @@
         <v>1.4198500000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9">
         <v>17.64</v>
@@ -1394,15 +2665,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="9">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="11">
         <v>3.06</v>
@@ -1412,8 +2686,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="11">
         <v>0.5</v>
@@ -1427,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="9">
         <v>2.52</v>
@@ -1438,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="9">
         <v>17.12</v>
@@ -1449,7 +2726,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="9"/>
     </row>
@@ -1463,7 +2740,7 @@
     </row>
     <row r="30" spans="8:9" x14ac:dyDescent="0.3">
       <c r="I30" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.3">
@@ -1471,7 +2748,7 @@
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I32" s="8">
         <v>1.19</v>
@@ -1482,7 +2759,7 @@
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1492,12 +2769,165 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D2147-8C3F-4830-9EFD-ACC945933456}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFEF0D2-42A7-4F01-9B32-CDA270193781}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <f>1342.09+182.35+25.31+2586.16</f>
+        <v>4135.91</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <f>1991.8+83.44+60.65+1167.45</f>
+        <v>3303.34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>3434.27</v>
+      </c>
+      <c r="D4">
+        <v>878</v>
+      </c>
+      <c r="E4">
+        <v>70.5</v>
+      </c>
+      <c r="F4">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G4">
+        <v>4.07</v>
+      </c>
+      <c r="H4">
+        <v>1910</v>
+      </c>
+      <c r="I4">
+        <v>535</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <f>1160+223+8.82+26.9+5.93+55.8+2320+1340</f>
+        <v>5140.45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{F61E8732-7A01-42DA-A6F8-B86768A15BF5}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{DA9D0D9A-6593-4DD3-A94D-1E8ACE884BFD}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{E173FD67-F9F9-44EE-A6B6-11B1941A330B}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{483E7182-074C-48B6-855F-0009038D0E56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231807D5-7F7F-4765-A277-03E72E7707E7}">
   <dimension ref="A1:AZ66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,29 +2939,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0.66008999999999995</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>0.79574999999999996</v>
@@ -1539,7 +2969,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>3.4126099999999999</v>
@@ -1547,7 +2977,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0.68398000000000003</v>
@@ -1555,7 +2985,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>0.68398000000000003</v>
@@ -1563,7 +2993,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>0.68398000000000003</v>
@@ -1571,7 +3001,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>0.68398000000000003</v>
@@ -1579,7 +3009,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0.68398000000000003</v>
@@ -1587,7 +3017,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.68398000000000003</v>
@@ -1595,7 +3025,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>0.68398000000000003</v>
@@ -1603,7 +3033,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0.33229999999999998</v>
@@ -1611,7 +3041,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>0.33229999999999998</v>
@@ -1619,7 +3049,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14">
         <v>0.33229999999999998</v>
@@ -1627,7 +3057,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>0.33229999999999998</v>
@@ -1635,7 +3065,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>0.33229999999999998</v>
@@ -1643,7 +3073,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>0.33229999999999998</v>
@@ -1651,7 +3081,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>0.33229999999999998</v>
@@ -1659,7 +3089,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>0.75127999999999995</v>
@@ -1667,7 +3097,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20">
         <v>0.75127999999999995</v>
@@ -1675,7 +3105,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>0.75127999999999995</v>
@@ -1683,7 +3113,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>0.75127999999999995</v>
@@ -1691,7 +3121,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>0.75127999999999995</v>
@@ -1699,7 +3129,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>0.75127999999999995</v>
@@ -1707,7 +3137,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25">
         <v>0.75127999999999995</v>
@@ -1715,7 +3145,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0.75127999999999995</v>
@@ -1723,7 +3153,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>0.75127999999999995</v>
@@ -1731,7 +3161,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>0.75127999999999995</v>
@@ -1739,7 +3169,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>0.75127999999999995</v>
@@ -1747,7 +3177,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30">
         <v>0.69233999999999996</v>
@@ -1755,7 +3185,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>0.69233999999999996</v>
@@ -1763,7 +3193,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>0.69233999999999996</v>
@@ -1771,7 +3201,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>0.69233999999999996</v>
@@ -1779,7 +3209,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>0.69233999999999996</v>
@@ -1787,7 +3217,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>0.76687000000000005</v>
@@ -1795,7 +3225,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>0.69233999999999996</v>
@@ -1803,7 +3233,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>0.76687000000000005</v>
@@ -1811,7 +3241,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>0.76687000000000005</v>
@@ -1819,7 +3249,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39">
         <v>0.72648999999999997</v>
@@ -1827,7 +3257,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40">
         <v>0.76687000000000005</v>
@@ -1835,7 +3265,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>0.76687000000000005</v>
@@ -1843,7 +3273,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>0.59518000000000004</v>
@@ -1851,7 +3281,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>0.59518000000000004</v>
@@ -1859,7 +3289,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>0.59518000000000004</v>
@@ -1867,7 +3297,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>0.59518000000000004</v>
@@ -1875,7 +3305,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46">
         <v>0.59518000000000004</v>
@@ -1883,7 +3313,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47">
         <v>0.59518000000000004</v>
@@ -1891,7 +3321,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48">
         <v>0.59518000000000004</v>
@@ -1899,7 +3329,7 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49">
         <v>0.59518000000000004</v>
@@ -1907,7 +3337,7 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50">
         <v>0.59518000000000004</v>
@@ -1915,7 +3345,7 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>0.59518000000000004</v>
@@ -1923,252 +3353,252 @@
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" t="s">
+        <v>85</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" t="s">
+        <v>87</v>
+      </c>
+      <c r="P56" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>38</v>
+      </c>
+      <c r="R56" t="s">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s">
+        <v>43</v>
+      </c>
+      <c r="T56" t="s">
+        <v>36</v>
+      </c>
+      <c r="U56" t="s">
+        <v>89</v>
+      </c>
+      <c r="V56" t="s">
+        <v>30</v>
+      </c>
+      <c r="W56" t="s">
+        <v>34</v>
+      </c>
+      <c r="X56" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ56" t="s">
         <v>19</v>
-      </c>
-      <c r="D56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" t="s">
-        <v>86</v>
-      </c>
-      <c r="L56" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" t="s">
-        <v>40</v>
-      </c>
-      <c r="N56" t="s">
-        <v>45</v>
-      </c>
-      <c r="O56" t="s">
-        <v>88</v>
-      </c>
-      <c r="P56" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>39</v>
-      </c>
-      <c r="R56" t="s">
-        <v>41</v>
-      </c>
-      <c r="S56" t="s">
-        <v>44</v>
-      </c>
-      <c r="T56" t="s">
-        <v>37</v>
-      </c>
-      <c r="U56" t="s">
-        <v>90</v>
-      </c>
-      <c r="V56" t="s">
-        <v>31</v>
-      </c>
-      <c r="W56" t="s">
-        <v>35</v>
-      </c>
-      <c r="X56" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO56" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP56" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ56" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR56" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS56" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU56" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV56" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW56" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX56" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY56" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ56" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>0.66008999999999995</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>0.79574999999999996</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>3.4126099999999999</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>0.68398000000000003</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61">
         <v>0.33229999999999998</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62">
         <v>0.75127999999999995</v>
@@ -2176,25 +3606,25 @@
       <c r="J62" s="5"/>
       <c r="L62" s="4"/>
       <c r="T62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z62" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
@@ -2213,7 +3643,7 @@
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>0.69233999999999996</v>
@@ -2224,19 +3654,19 @@
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AI63" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ63" s="5"/>
       <c r="AK63" s="7"/>
@@ -2246,7 +3676,7 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>0.76687000000000005</v>
@@ -2256,27 +3686,27 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="5"/>
       <c r="AO64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP64" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ64" s="5"/>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65">
         <v>0.72648999999999997</v>
       </c>
       <c r="AN65" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0.59518000000000004</v>
@@ -2284,958 +3714,733 @@
       <c r="G66" s="5"/>
       <c r="AN66" s="5"/>
       <c r="AQ66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AR66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AS66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AU66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AV66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AW66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AX66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AY66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AZ66" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DF73D-2245-450A-883D-6F7644A49C1D}">
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D2147-8C3F-4830-9EFD-ACC945933456}">
+  <dimension ref="A1:BA66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2">
-        <v>2.2437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3">
-        <v>280</v>
-      </c>
-      <c r="C3">
-        <f>1350+143+0.00356+7.36+8.97+30</f>
-        <v>1539.33356</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+      <c r="J56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" t="s">
+        <v>85</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" t="s">
+        <v>39</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>42</v>
+      </c>
+      <c r="R56" t="s">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s">
+        <v>43</v>
+      </c>
+      <c r="U56" t="s">
+        <v>36</v>
+      </c>
+      <c r="V56" t="s">
+        <v>89</v>
+      </c>
+      <c r="W56" t="s">
+        <v>30</v>
+      </c>
+      <c r="X56" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57">
+        <v>0.66008999999999995</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58">
+        <v>0.79574999999999996</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>3.4126099999999999</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60">
+        <v>0.68398000000000003</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M60" s="6"/>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62">
+        <v>0.75127999999999995</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="M62" s="4"/>
+      <c r="U62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="W62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="X62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63">
+        <v>0.69233999999999996</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64">
+        <v>0.76687000000000005</v>
+      </c>
+      <c r="AK64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR64" s="5"/>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65">
+        <v>0.72648999999999997</v>
+      </c>
+      <c r="AO65" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66">
+        <v>0.59518000000000004</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AR66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AX66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AY66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA66" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20718251-D8FB-4CBE-A821-22EC91E3BF6B}">
-  <dimension ref="A1:AM28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="4">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="C4" s="4">
-        <v>67.3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>71.25</v>
-      </c>
-      <c r="E4" s="4">
-        <v>74.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>24.74</v>
-      </c>
-      <c r="D5">
-        <v>45.38</v>
-      </c>
-      <c r="E5">
-        <v>50.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6">
-        <v>70.59</v>
-      </c>
-      <c r="C6">
-        <v>92.03</v>
-      </c>
-      <c r="D6">
-        <v>116.63</v>
-      </c>
-      <c r="E6">
-        <v>126.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7">
-        <v>70.59</v>
-      </c>
-      <c r="C7">
-        <v>95.56</v>
-      </c>
-      <c r="D7">
-        <v>125.46</v>
-      </c>
-      <c r="E7">
-        <v>142.19999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8">
-        <v>70.59</v>
-      </c>
-      <c r="C8">
-        <v>165.69</v>
-      </c>
-      <c r="D8">
-        <v>266.18</v>
-      </c>
-      <c r="E8">
-        <v>360.28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="4">
-        <v>69.47</v>
-      </c>
-      <c r="C10" s="4">
-        <v>68.33</v>
-      </c>
-      <c r="D10" s="4">
-        <v>71.95</v>
-      </c>
-      <c r="E10" s="4">
-        <v>74.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11">
-        <v>5.07</v>
-      </c>
-      <c r="C11">
-        <v>30.36</v>
-      </c>
-      <c r="D11">
-        <v>51.1</v>
-      </c>
-      <c r="E11">
-        <v>56.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12">
-        <v>74.53</v>
-      </c>
-      <c r="C12">
-        <v>98.69</v>
-      </c>
-      <c r="D12">
-        <v>123.6</v>
-      </c>
-      <c r="E12">
-        <v>133.13999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13">
-        <v>74.81</v>
-      </c>
-      <c r="C13">
-        <v>103.24</v>
-      </c>
-      <c r="D13">
-        <v>134.34</v>
-      </c>
-      <c r="E13">
-        <v>151.13999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14">
-        <v>86.93</v>
-      </c>
-      <c r="C14">
-        <v>190.53</v>
-      </c>
-      <c r="D14">
-        <v>300.61</v>
-      </c>
-      <c r="E14">
-        <v>404.98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="4">
-        <v>69.709999999999994</v>
-      </c>
-      <c r="C16" s="4">
-        <v>77.489999999999995</v>
-      </c>
-      <c r="D16" s="4">
-        <v>89.77</v>
-      </c>
-      <c r="E16" s="4">
-        <v>96.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17">
-        <v>5.25</v>
-      </c>
-      <c r="C17">
-        <v>29.88</v>
-      </c>
-      <c r="D17">
-        <v>50.09</v>
-      </c>
-      <c r="E17">
-        <v>54.46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18">
-        <v>74.959999999999994</v>
-      </c>
-      <c r="C18">
-        <v>107.36</v>
-      </c>
-      <c r="D18">
-        <v>139.86000000000001</v>
-      </c>
-      <c r="E18">
-        <v>152.27000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19">
-        <v>75.16</v>
-      </c>
-      <c r="C19">
-        <v>111</v>
-      </c>
-      <c r="D19">
-        <v>149.30000000000001</v>
-      </c>
-      <c r="E19">
-        <v>169.56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20">
-        <v>87.28</v>
-      </c>
-      <c r="C20">
-        <v>192.57</v>
-      </c>
-      <c r="D20">
-        <v>305.61</v>
-      </c>
-      <c r="E20">
-        <v>411.52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28">
-        <v>62.06</v>
-      </c>
-      <c r="F28">
-        <v>125.73</v>
-      </c>
-      <c r="G28">
-        <v>186.9</v>
-      </c>
-      <c r="H28">
-        <v>239.61</v>
-      </c>
-      <c r="I28" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>142</v>
-      </c>
-      <c r="P28" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>145</v>
-      </c>
-      <c r="R28" t="s">
-        <v>144</v>
-      </c>
-      <c r="S28">
-        <v>62.06</v>
-      </c>
-      <c r="T28">
-        <v>125.73</v>
-      </c>
-      <c r="U28">
-        <v>186.9</v>
-      </c>
-      <c r="V28">
-        <v>239.61</v>
-      </c>
-      <c r="W28" t="s">
-        <v>142</v>
-      </c>
-      <c r="X28" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA28">
-        <v>62.06</v>
-      </c>
-      <c r="AB28">
-        <v>125.73</v>
-      </c>
-      <c r="AC28">
-        <v>186.9</v>
-      </c>
-      <c r="AD28">
-        <v>239.61</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ28">
-        <v>62.06</v>
-      </c>
-      <c r="AK28">
-        <v>125.73</v>
-      </c>
-      <c r="AL28">
-        <v>186.9</v>
-      </c>
-      <c r="AM28">
-        <v>239.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02338667-7CD3-4C4B-B89F-1C7951C9C08F}">
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B358049B-63E2-4A39-AB7C-9AB14B655F94}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2">
-        <v>0.56142000000000003</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3">
-        <v>0.18395</v>
-      </c>
-      <c r="D3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4">
-        <v>0.64054</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5">
-        <v>0.21138999999999999</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>